--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.063913333333333</v>
+        <v>0.2379653333333333</v>
       </c>
       <c r="H2">
-        <v>6.19174</v>
+        <v>0.713896</v>
       </c>
       <c r="I2">
-        <v>0.003360194407478493</v>
+        <v>0.0004000853538884766</v>
       </c>
       <c r="J2">
-        <v>0.003360194407478493</v>
+        <v>0.0004000853538884766</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.081988</v>
+        <v>1.292163333333333</v>
       </c>
       <c r="N2">
-        <v>3.245964</v>
+        <v>3.87649</v>
       </c>
       <c r="O2">
-        <v>0.008303622335279906</v>
+        <v>0.00934486532303975</v>
       </c>
       <c r="P2">
-        <v>0.008303622335279906</v>
+        <v>0.00934486532303975</v>
       </c>
       <c r="Q2">
-        <v>2.233129459706666</v>
+        <v>0.3074900783377778</v>
       </c>
       <c r="R2">
-        <v>20.09816513736</v>
+        <v>2.76741070504</v>
       </c>
       <c r="S2">
-        <v>2.790178533282104E-05</v>
+        <v>3.738743749808512E-06</v>
       </c>
       <c r="T2">
-        <v>2.790178533282104E-05</v>
+        <v>3.738743749808512E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.063913333333333</v>
+        <v>0.2379653333333333</v>
       </c>
       <c r="H3">
-        <v>6.19174</v>
+        <v>0.713896</v>
       </c>
       <c r="I3">
-        <v>0.003360194407478493</v>
+        <v>0.0004000853538884766</v>
       </c>
       <c r="J3">
-        <v>0.003360194407478493</v>
+        <v>0.0004000853538884766</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>340.004425</v>
       </c>
       <c r="O3">
-        <v>0.8697780805714425</v>
+        <v>0.8196320797583818</v>
       </c>
       <c r="P3">
-        <v>0.8697780805714423</v>
+        <v>0.8196320797583818</v>
       </c>
       <c r="Q3">
-        <v>233.9132220499444</v>
+        <v>26.96975544331111</v>
       </c>
       <c r="R3">
-        <v>2105.2189984495</v>
+        <v>242.7277989898</v>
       </c>
       <c r="S3">
-        <v>0.002922623442083539</v>
+        <v>0.0003279227906884803</v>
       </c>
       <c r="T3">
-        <v>0.002922623442083538</v>
+        <v>0.0003279227906884803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.063913333333333</v>
+        <v>0.2379653333333333</v>
       </c>
       <c r="H4">
-        <v>6.19174</v>
+        <v>0.713896</v>
       </c>
       <c r="I4">
-        <v>0.003360194407478493</v>
+        <v>0.0004000853538884766</v>
       </c>
       <c r="J4">
-        <v>0.003360194407478493</v>
+        <v>0.0004000853538884766</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.886336</v>
+        <v>23.648251</v>
       </c>
       <c r="N4">
-        <v>47.659008</v>
+        <v>70.94475299999999</v>
       </c>
       <c r="O4">
-        <v>0.1219182970932776</v>
+        <v>0.1710230549185785</v>
       </c>
       <c r="P4">
-        <v>0.1219182970932776</v>
+        <v>0.1710230549185785</v>
       </c>
       <c r="Q4">
-        <v>32.78802068821333</v>
+        <v>5.627463931965333</v>
       </c>
       <c r="R4">
-        <v>295.09218619392</v>
+        <v>50.64717538768799</v>
       </c>
       <c r="S4">
-        <v>0.0004096691800621328</v>
+        <v>6.842381945018785E-05</v>
       </c>
       <c r="T4">
-        <v>0.0004096691800621328</v>
+        <v>6.842381945018785E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1756.263122</v>
       </c>
       <c r="I5">
-        <v>0.9531061576560254</v>
+        <v>0.9842542228653065</v>
       </c>
       <c r="J5">
-        <v>0.9531061576560252</v>
+        <v>0.9842542228653065</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.081988</v>
+        <v>1.292163333333333</v>
       </c>
       <c r="N5">
-        <v>3.245964</v>
+        <v>3.87649</v>
       </c>
       <c r="O5">
-        <v>0.008303622335279906</v>
+        <v>0.00934486532303975</v>
       </c>
       <c r="P5">
-        <v>0.008303622335279906</v>
+        <v>0.00934486532303975</v>
       </c>
       <c r="Q5">
-        <v>633.4185409488454</v>
+        <v>756.4596033113089</v>
       </c>
       <c r="R5">
-        <v>5700.766868539608</v>
+        <v>6808.136429801781</v>
       </c>
       <c r="S5">
-        <v>0.007914233578605384</v>
+        <v>0.009197723156309441</v>
       </c>
       <c r="T5">
-        <v>0.007914233578605384</v>
+        <v>0.009197723156309441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1756.263122</v>
       </c>
       <c r="I6">
-        <v>0.9531061576560254</v>
+        <v>0.9842542228653065</v>
       </c>
       <c r="J6">
-        <v>0.9531061576560252</v>
+        <v>0.9842542228653065</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>340.004425</v>
       </c>
       <c r="O6">
-        <v>0.8697780805714425</v>
+        <v>0.8196320797583818</v>
       </c>
       <c r="P6">
-        <v>0.8697780805714423</v>
+        <v>0.8196320797583818</v>
       </c>
       <c r="Q6">
         <v>66348.58143825721</v>
@@ -818,10 +818,10 @@
         <v>597137.2329443148</v>
       </c>
       <c r="S6">
-        <v>0.8289908443868803</v>
+        <v>0.806726335698061</v>
       </c>
       <c r="T6">
-        <v>0.8289908443868802</v>
+        <v>0.806726335698061</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1756.263122</v>
       </c>
       <c r="I7">
-        <v>0.9531061576560254</v>
+        <v>0.9842542228653065</v>
       </c>
       <c r="J7">
-        <v>0.9531061576560252</v>
+        <v>0.9842542228653065</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.886336</v>
+        <v>23.648251</v>
       </c>
       <c r="N7">
-        <v>47.659008</v>
+        <v>70.94475299999999</v>
       </c>
       <c r="O7">
-        <v>0.1219182970932776</v>
+        <v>0.1710230549185785</v>
       </c>
       <c r="P7">
-        <v>0.1219182970932776</v>
+        <v>0.1710230549185785</v>
       </c>
       <c r="Q7">
-        <v>9300.195353500332</v>
+        <v>13844.18371036654</v>
       </c>
       <c r="R7">
-        <v>83701.75818150298</v>
+        <v>124597.6533932989</v>
       </c>
       <c r="S7">
-        <v>0.1162010796905396</v>
+        <v>0.1683301640109361</v>
       </c>
       <c r="T7">
-        <v>0.1162010796905396</v>
+        <v>0.1683301640109361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.739428</v>
+        <v>9.127409</v>
       </c>
       <c r="H8">
-        <v>80.218284</v>
+        <v>27.382227</v>
       </c>
       <c r="I8">
-        <v>0.04353364793649628</v>
+        <v>0.01534569178080505</v>
       </c>
       <c r="J8">
-        <v>0.04353364793649627</v>
+        <v>0.01534569178080505</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.081988</v>
+        <v>1.292163333333333</v>
       </c>
       <c r="N8">
-        <v>3.245964</v>
+        <v>3.87649</v>
       </c>
       <c r="O8">
-        <v>0.008303622335279906</v>
+        <v>0.00934486532303975</v>
       </c>
       <c r="P8">
-        <v>0.008303622335279906</v>
+        <v>0.00934486532303975</v>
       </c>
       <c r="Q8">
-        <v>28.931740222864</v>
+        <v>11.79410323813667</v>
       </c>
       <c r="R8">
-        <v>260.385662005776</v>
+        <v>106.14692914323</v>
       </c>
       <c r="S8">
-        <v>0.0003614869713417025</v>
+        <v>0.0001434034229805012</v>
       </c>
       <c r="T8">
-        <v>0.0003614869713417024</v>
+        <v>0.0001434034229805012</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.739428</v>
+        <v>9.127409</v>
       </c>
       <c r="H9">
-        <v>80.218284</v>
+        <v>27.382227</v>
       </c>
       <c r="I9">
-        <v>0.04353364793649628</v>
+        <v>0.01534569178080505</v>
       </c>
       <c r="J9">
-        <v>0.04353364793649627</v>
+        <v>0.01534569178080505</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>340.004425</v>
       </c>
       <c r="O9">
-        <v>0.8697780805714425</v>
+        <v>0.8196320797583818</v>
       </c>
       <c r="P9">
-        <v>0.8697780805714423</v>
+        <v>0.8196320797583818</v>
       </c>
       <c r="Q9">
-        <v>3030.507947322967</v>
+        <v>1034.453149594942</v>
       </c>
       <c r="R9">
-        <v>27274.5715259067</v>
+        <v>9310.078346354474</v>
       </c>
       <c r="S9">
-        <v>0.03786461274247867</v>
+        <v>0.01257782126963235</v>
       </c>
       <c r="T9">
-        <v>0.03786461274247866</v>
+        <v>0.01257782126963235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.739428</v>
+        <v>9.127409</v>
       </c>
       <c r="H10">
-        <v>80.218284</v>
+        <v>27.382227</v>
       </c>
       <c r="I10">
-        <v>0.04353364793649628</v>
+        <v>0.01534569178080505</v>
       </c>
       <c r="J10">
-        <v>0.04353364793649627</v>
+        <v>0.01534569178080505</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.886336</v>
+        <v>23.648251</v>
       </c>
       <c r="N10">
-        <v>47.659008</v>
+        <v>70.94475299999999</v>
       </c>
       <c r="O10">
-        <v>0.1219182970932776</v>
+        <v>0.1710230549185785</v>
       </c>
       <c r="P10">
-        <v>0.1219182970932776</v>
+        <v>0.1710230549185785</v>
       </c>
       <c r="Q10">
-        <v>424.791537655808</v>
+        <v>215.847259011659</v>
       </c>
       <c r="R10">
-        <v>3823.123838902272</v>
+        <v>1942.625331104931</v>
       </c>
       <c r="S10">
-        <v>0.005307548222675905</v>
+        <v>0.0026244670881922</v>
       </c>
       <c r="T10">
-        <v>0.005307548222675904</v>
+        <v>0.0026244670881922</v>
       </c>
     </row>
   </sheetData>
